--- a/03-Communication-and-Teamwork/Group Details.xlsx
+++ b/03-Communication-and-Teamwork/Group Details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://autuni-my.sharepoint.com/personal/cgr2690_autuni_ac_nz/Documents/Data/COMP702/Part 1/03-Communication-and-Teamwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{3D177033-7E85-4859-B5CB-BA4919B8F8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33554B54-6F94-4317-9551-64D9E3C9BBC4}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{3D177033-7E85-4859-B5CB-BA4919B8F8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60F541DC-5752-4C3B-BED9-63CAFC8DA2E1}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4B042067-2FC5-4CE8-BC7F-051C01C7467C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B042067-2FC5-4CE8-BC7F-051C01C7467C}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Details" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>First Name</t>
   </si>
@@ -140,13 +140,25 @@
   </si>
   <si>
     <t>team lead, WBS</t>
+  </si>
+  <si>
+    <t>Kylie</t>
+  </si>
+  <si>
+    <t>Afable</t>
+  </si>
+  <si>
+    <t>rvshia</t>
+  </si>
+  <si>
+    <t>cjq7738@autuni.ac.nz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +289,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -579,7 +599,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -622,11 +642,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -660,6 +682,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -684,8 +707,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{422C1290-59FE-4B51-9EEF-60EA3B64EB31}" name="Table1" displayName="Table1" ref="A1:F8" totalsRowShown="0">
-  <autoFilter ref="A1:F8" xr:uid="{422C1290-59FE-4B51-9EEF-60EA3B64EB31}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{422C1290-59FE-4B51-9EEF-60EA3B64EB31}" name="Table1" displayName="Table1" ref="A1:F9" totalsRowShown="0">
+  <autoFilter ref="A1:F9" xr:uid="{422C1290-59FE-4B51-9EEF-60EA3B64EB31}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7E15DF51-7C41-4D7C-AF6C-1F51BC5B8CFD}" name="First Name"/>
     <tableColumn id="2" xr3:uid="{8075AA68-E899-49AA-93D4-7FD393E87EBE}" name="Last Name"/>
@@ -1015,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797CE63C-1E5E-476B-8393-EEF463CB283C}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,22 +1196,42 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>19083894</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{A4F36C65-DED6-4133-AD0E-D02EADEB7EC0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>